--- a/auto_testing/src/main/resources/report/template/Report_Template.xlsx
+++ b/auto_testing/src/main/resources/report/template/Report_Template.xlsx
@@ -39,7 +39,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J3")</t>
+jx:area(lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>${case.status}</t>
+  </si>
+  <si>
+    <t>Total Case</t>
+  </si>
+  <si>
+    <t>NG Case</t>
+  </si>
+  <si>
+    <t>OK Case</t>
   </si>
 </sst>
 </file>
@@ -180,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +511,7 @@
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +542,17 @@
       <c r="J1" t="s">
         <v>18</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -563,6 +582,18 @@
       </c>
       <c r="J2" t="s">
         <v>19</v>
+      </c>
+      <c r="L2" s="1">
+        <f>COUNTA(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(J2,"OK")</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIF(J2,"NG")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
